--- a/biology/Zoologie/Eulemur_cinereiceps/Eulemur_cinereiceps.xlsx
+++ b/biology/Zoologie/Eulemur_cinereiceps/Eulemur_cinereiceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Lémur à collier blanc, ou Lémur à tête grise ou encore Maki à fraise (Eulemur cinereiceps) est une espèce de primates lémuriformes de la famille des Lemuridae. Comme tous les lémuriens, il est endémique de l'île de Madagascar.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De récentes données génétiques et morphologiques ont suggéré que le taxon E. albocollaris était en fait un synonyme de E. cinereiceps[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De récentes données génétiques et morphologiques ont suggéré que le taxon E. albocollaris était en fait un synonyme de E. cinereiceps.
 Ce taxon était anciennement considéré comme une sous-espèce d'Eulemur fulvus (Eulemur fulvus albocollaris).
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le sud-est de Madagascar. Il vit dans la forêt tropicale humide de basse altitude (du niveau de la mer jusqu'à 900 m)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le sud-est de Madagascar. Il vit dans la forêt tropicale humide de basse altitude (du niveau de la mer jusqu'à 900 m).
 </t>
         </is>
       </c>
